--- a/biology/Botanique/Begonia_schaeferi/Begonia_schaeferi.xlsx
+++ b/biology/Botanique/Begonia_schaeferi/Begonia_schaeferi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia schaeferi Engl. est une espèce de plantes de la famille des Begoniaceae, de la section Loasibegonia.
 Présente en Afrique tropicale, elle a été décrite en 1921 par Adolf Engler.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique schaeferi rend hommage à Hans Schäfer[2] qui explora le mont Manengouba en 1910[3] et y collecta le premier spécimen.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique schaeferi rend hommage à Hans Schäfer qui explora le mont Manengouba en 1910 et y collecta le premier spécimen.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une petite herbe rhizomateuse à fleurs jaunes, dont la hauteur est généralement comprise entre 10 et 22 cm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une petite herbe rhizomateuse à fleurs jaunes, dont la hauteur est généralement comprise entre 10 et 22 cm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle pousse sur des roches ou parois rocheuses dans les forêts montagnardes ou submontagnardes, entre 1 500 et 2 300 m d'altitude[4].
-Jugée « quasi menacée », l'espèce a été observée au Cameroun dans trois régions (Nord-Ouest, Ouest, Littoral), également sur le plateau Obudu (en) au Nigeria et plus récemment au Gabon. Elle pourrait donc être plus commune qu'on ne le pensait[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle pousse sur des roches ou parois rocheuses dans les forêts montagnardes ou submontagnardes, entre 1 500 et 2 300 m d'altitude.
+Jugée « quasi menacée », l'espèce a été observée au Cameroun dans trois régions (Nord-Ouest, Ouest, Littoral), également sur le plateau Obudu (en) au Nigeria et plus récemment au Gabon. Elle pourrait donc être plus commune qu'on ne le pensait.
 </t>
         </is>
       </c>
